--- a/数据/省妇幼报告/郝海萍-激素检测报告-2022-05-20.xlsx
+++ b/数据/省妇幼报告/郝海萍-激素检测报告-2022-05-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AONE爱湾医学\医学中心\产品\PCOS多囊卵巢综合征\多中心项目\省妇幼报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\linuxPathFile\shenZhen_CentOs\project\long-term-proj\pcos\PCOS_transfer_data-new\数据\省妇幼报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8723EF71-52F1-4EF7-B05A-440E6477D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F7C60-E592-4F28-B3EF-2A18F554AFC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7704" yWindow="1440" windowWidth="13560" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="1440" windowWidth="13560" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>第1页，共1页</t>
   </si>
@@ -234,6 +234,10 @@
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>2343127051+2443127052</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -251,6 +255,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -265,18 +270,21 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -284,18 +292,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -303,6 +314,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -310,12 +322,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -323,12 +337,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -336,11 +352,13 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -611,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -695,148 +713,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -863,75 +810,149 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,13 +984,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>320040</xdr:rowOff>
+          <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1386,541 +1407,541 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="7" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="6"/>
+    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="5.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="91">
-        <v>2343127051</v>
-      </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="86" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="83"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="76" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
-    </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="82" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="83"/>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="76" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="78"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="73" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="75"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="56">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="53">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="62" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="63"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="60"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="56">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="53">
         <v>2.9580000000000002</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="56">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="53">
         <v>2776.39</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>4</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="59">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="56">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-    </row>
-    <row r="14" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>5</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="56">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="53">
         <v>2.7519999999999998</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>6</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="59">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="56">
         <v>1.528</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="53" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37" t="s">
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="39" t="s">
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="83" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34" t="s">
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="84"/>
+    </row>
+    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37" t="s">
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="84"/>
+    </row>
+    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="37" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:21" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="84"/>
+    </row>
+    <row r="22" spans="1:21" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="50" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="34" t="s">
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="84"/>
+    </row>
+    <row r="23" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="42" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46" t="s">
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="I23" s="88"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="85"/>
+    </row>
+    <row r="24" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="82"/>
       <c r="H24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+    </row>
+    <row r="26" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -1931,21 +1952,21 @@
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
     </row>
-    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -1955,7 +1976,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -1972,34 +1993,27 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="65">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B18:C23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L18:L23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
@@ -2016,27 +2030,34 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B18:C23"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L18:L23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2054,13 +2075,13 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>213360</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>320040</xdr:rowOff>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
